--- a/query.xlsx
+++ b/query.xlsx
@@ -1,30 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>start,A,H,M,W,X,b,c</t>
+  </si>
+  <si>
+    <t>start,E,G,K,P,T,V,X</t>
+  </si>
+  <si>
+    <t>start,G,P,U,Y,b</t>
+  </si>
+  <si>
+    <t>start,I,P</t>
+  </si>
+  <si>
+    <t>start,M</t>
+  </si>
+  <si>
+    <t>start,X,f</t>
+  </si>
+  <si>
+    <t>start,G,H,J,O,Z,d</t>
+  </si>
+  <si>
+    <t>start,B,J,K,N,V,c,e</t>
+  </si>
+  <si>
+    <t>start,F,J,L,N,b</t>
+  </si>
+  <si>
+    <t>start,I,R,d</t>
+  </si>
+  <si>
+    <t>start,A,E,Z,a</t>
+  </si>
+  <si>
+    <t>start,F</t>
+  </si>
+  <si>
+    <t>start,E,F,P,d</t>
+  </si>
+  <si>
+    <t>start,A,E,O,P,S,U</t>
+  </si>
+  <si>
+    <t>start,B,G,I,K,N,U,Z,b,d</t>
+  </si>
+  <si>
+    <t>start,B,E,S,U,W,Z,d,e</t>
+  </si>
+  <si>
+    <t>start,C,D,E,M,P,R,W,d,f</t>
+  </si>
+  <si>
+    <t>start,D,Q,a,c</t>
+  </si>
+  <si>
+    <t>start,B,C,N,U,X,c,d</t>
+  </si>
+  <si>
+    <t>start,A,B,H,K,W,Y,b,f</t>
+  </si>
+  <si>
+    <t>start,A,D,G,Z,a</t>
+  </si>
+  <si>
+    <t>start,M,T,b,c</t>
+  </si>
+  <si>
+    <t>start,D,H,L,Q</t>
+  </si>
+  <si>
+    <t>start,D,E,G,I,Q</t>
+  </si>
+  <si>
+    <t>start,D,V</t>
+  </si>
+  <si>
+    <t>start,C,I,R,a,b,d</t>
+  </si>
+  <si>
+    <t>start,A,D,H,e</t>
+  </si>
+  <si>
+    <t>start,C,E,L,M,N,U,W,a</t>
+  </si>
+  <si>
+    <t>start,A,B,C,D,P,W,X,a</t>
+  </si>
+  <si>
+    <t>start,A,K,M,R,d</t>
+  </si>
+  <si>
+    <t>start,f</t>
+  </si>
+  <si>
+    <t>start,F,G,N,Q,a,b,e</t>
+  </si>
+  <si>
+    <t>start,A,M,N,Z,b</t>
+  </si>
+  <si>
+    <t>start,A,F,L,P,Q,b,c,e</t>
+  </si>
+  <si>
+    <t>start,C,L,Q,Y,e</t>
+  </si>
+  <si>
+    <t>start,H,N,P,R,X,a,c</t>
+  </si>
+  <si>
+    <t>start,I,L,N,R,Y,Z,c,f</t>
+  </si>
+  <si>
+    <t>start,G,H,J,K,N,S,Z,f</t>
+  </si>
+  <si>
+    <t>start,D,F,H,S,T,U,W,X,e</t>
+  </si>
+  <si>
+    <t>start,B,J,S,V,X,Y</t>
+  </si>
+  <si>
+    <t>start,M,X,c,f</t>
+  </si>
+  <si>
+    <t>start,B,D,E,G,P,U,V,Y</t>
+  </si>
+  <si>
+    <t>start,H,M,O,P,S,U,X,a</t>
+  </si>
+  <si>
+    <t>start,B,J,a</t>
+  </si>
+  <si>
+    <t>start,E,F,H,K,N,W,X,Z,d,e</t>
+  </si>
+  <si>
+    <t>start,K,S,W,Y,Z,c,e</t>
+  </si>
+  <si>
+    <t>start,C,G,I,R,U,Z,d</t>
+  </si>
+  <si>
+    <t>start,B,M,P,Z,a,b,d,e</t>
+  </si>
+  <si>
+    <t>start,J,b,c</t>
+  </si>
+  <si>
+    <t>start,E,L,R,Y,a</t>
+  </si>
+  <si>
+    <t>start,X</t>
+  </si>
+  <si>
+    <t>start,H,T,U,b,c,f</t>
+  </si>
+  <si>
+    <t>start,M,c</t>
+  </si>
+  <si>
+    <t>start,I,J,N,S,W,Z</t>
+  </si>
+  <si>
+    <t>start,E,J,M,N,T,a</t>
+  </si>
+  <si>
+    <t>start,D,G,H,P,T,V,X,a</t>
+  </si>
+  <si>
+    <t>start,E,K,N,O,P,d</t>
+  </si>
+  <si>
+    <t>start,K,Q,R,V,Z,e</t>
+  </si>
+  <si>
+    <t>start,A,D,I,U,Y,Z,d</t>
+  </si>
+  <si>
+    <t>start,E,G,K,N,S,V,Y,b,d</t>
+  </si>
+  <si>
+    <t>start,d</t>
+  </si>
+  <si>
+    <t>start,A,F,J,P</t>
+  </si>
+  <si>
+    <t>start,C,I,L,M,S,W,Z,e</t>
+  </si>
+  <si>
+    <t>start,D,G,O,Q,R,Y,Z</t>
+  </si>
+  <si>
+    <t>start,A,B,I,J,N,d,f</t>
+  </si>
+  <si>
+    <t>start,A,B,C,F,M,V,d</t>
+  </si>
+  <si>
+    <t>start,J,L</t>
+  </si>
+  <si>
+    <t>start,C,G,H,I,J,c</t>
+  </si>
+  <si>
+    <t>start,H,I,K,M,S</t>
+  </si>
+  <si>
+    <t>start,A,I,O,Y,d</t>
+  </si>
+  <si>
+    <t>start,A,C,M</t>
+  </si>
+  <si>
+    <t>start,A,B,C,F,G,Z</t>
+  </si>
+  <si>
+    <t>start,E,F,G,P,U,a,d</t>
+  </si>
+  <si>
+    <t>start,F,M,O,W,c,e</t>
+  </si>
+  <si>
+    <t>start,M,V,W,c,f</t>
+  </si>
+  <si>
+    <t>start,A,B,L,M</t>
+  </si>
+  <si>
+    <t>start,G,P</t>
+  </si>
+  <si>
+    <t>start,D,E,J,N,V,f</t>
+  </si>
+  <si>
+    <t>start,I,K,O,Y,Z,a</t>
+  </si>
+  <si>
+    <t>start,B,C,D,M,S,Y,Z</t>
+  </si>
+  <si>
+    <t>start,I,L,M,O,Z,a</t>
+  </si>
+  <si>
+    <t>start,C,H,I,Q,R,U,X,d,f</t>
+  </si>
+  <si>
+    <t>start,A,H,I,K,O,Y,a</t>
+  </si>
+  <si>
+    <t>start,P,b,d</t>
+  </si>
+  <si>
+    <t>start,B,X</t>
+  </si>
+  <si>
+    <t>start,D,b,f</t>
+  </si>
+  <si>
+    <t>start,I,J,L,M,U,V,a,b</t>
+  </si>
+  <si>
+    <t>start,C,G,O</t>
+  </si>
+  <si>
+    <t>start,S,T,U,W,b</t>
+  </si>
+  <si>
+    <t>start,B,O,X,Y</t>
+  </si>
+  <si>
+    <t>start,A,D,H,R,S</t>
+  </si>
+  <si>
+    <t>start,E,F,K,L,M,N,T,W,e</t>
+  </si>
+  <si>
+    <t>start,H,I,K,N,U,X,Z</t>
+  </si>
+  <si>
+    <t>start,J</t>
+  </si>
+  <si>
+    <t>start,C,I,M,P,Q</t>
+  </si>
+  <si>
+    <t>start,A,O,T,V</t>
+  </si>
+  <si>
+    <t>start,F,I,L,O,R,U,V,Y,c</t>
+  </si>
+  <si>
+    <t>start,F,J,Q,X,a,c</t>
+  </si>
+  <si>
+    <t>start,F,G,H,V,W,Y,Z,d</t>
+  </si>
+  <si>
+    <t>start,G,O,U,Y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,15 +356,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -79,44 +371,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +435,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +469,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +480,678 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/query.xlsx
+++ b/query.xlsx
@@ -14,306 +14,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>start,A,H,M,W,X,b,c</t>
-  </si>
-  <si>
-    <t>start,E,G,K,P,T,V,X</t>
-  </si>
-  <si>
-    <t>start,G,P,U,Y,b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+  <si>
+    <t>start,C,I,L,O,S,X,Z,c,f</t>
+  </si>
+  <si>
+    <t>start,C,W</t>
+  </si>
+  <si>
+    <t>start,C,G,J,N,Y,b</t>
+  </si>
+  <si>
+    <t>start,D,F,I,P,Q,X,Z,c</t>
+  </si>
+  <si>
+    <t>start,B,E,J,N,V,Y,f</t>
+  </si>
+  <si>
+    <t>start,O,Y,c,f</t>
+  </si>
+  <si>
+    <t>start,W</t>
+  </si>
+  <si>
+    <t>start,A,D,E,H,S,W,X,Y,b</t>
+  </si>
+  <si>
+    <t>start,T,c</t>
+  </si>
+  <si>
+    <t>start,L,X,b</t>
+  </si>
+  <si>
+    <t>start,G,K,T</t>
+  </si>
+  <si>
+    <t>start,G,L,R,W,X,a,b,f</t>
+  </si>
+  <si>
+    <t>start,D,F,J,N,T,Z,b,f</t>
+  </si>
+  <si>
+    <t>start,D,I,L,N,Q,U,Z,e</t>
+  </si>
+  <si>
+    <t>start,C,M,N,P,Y,d,e</t>
+  </si>
+  <si>
+    <t>start,F,K,W,f</t>
+  </si>
+  <si>
+    <t>start,O</t>
+  </si>
+  <si>
+    <t>start,D,K</t>
+  </si>
+  <si>
+    <t>start,A,D,E,F,J,V,e</t>
+  </si>
+  <si>
+    <t>start,B,K,M,P,V,Y,Z,e</t>
+  </si>
+  <si>
+    <t>start,D,Z</t>
+  </si>
+  <si>
+    <t>start,C,G,H,K,X</t>
+  </si>
+  <si>
+    <t>start,C,O,V,c</t>
+  </si>
+  <si>
+    <t>start,B,C,N,R,V,b</t>
+  </si>
+  <si>
+    <t>start,A,E,H,L,Q,U,Z,c,e</t>
+  </si>
+  <si>
+    <t>start,Q,R,V</t>
+  </si>
+  <si>
+    <t>start,E,J,Q,a,b,c</t>
+  </si>
+  <si>
+    <t>start,I,L,M,N,P,Q,V,X,e</t>
+  </si>
+  <si>
+    <t>start,D,X,d,e</t>
+  </si>
+  <si>
+    <t>start,B,J</t>
+  </si>
+  <si>
+    <t>start,A,I,J,L,W,Y,a,b</t>
+  </si>
+  <si>
+    <t>start,B,C,E,K,T,Z,b,f</t>
+  </si>
+  <si>
+    <t>start,C,H,M,N,O,S,U,W,Y</t>
+  </si>
+  <si>
+    <t>start,A,H,M,O,Z</t>
+  </si>
+  <si>
+    <t>start,G,I,P,Q,b</t>
+  </si>
+  <si>
+    <t>start,L,M</t>
+  </si>
+  <si>
+    <t>start,D,G,P,b</t>
+  </si>
+  <si>
+    <t>start,C,G,J,P,U,a,b,d</t>
+  </si>
+  <si>
+    <t>start,C</t>
+  </si>
+  <si>
+    <t>start,C,L,M,P,X,a,c,d</t>
+  </si>
+  <si>
+    <t>start,I,M,T,V,X,Z,e</t>
+  </si>
+  <si>
+    <t>start,F,K,L,Q,T,e</t>
+  </si>
+  <si>
+    <t>start,B,D,F,T,Y,f</t>
+  </si>
+  <si>
+    <t>start,N,d</t>
+  </si>
+  <si>
+    <t>start,C,I,J,O,T</t>
+  </si>
+  <si>
+    <t>start,C,F,I,f</t>
+  </si>
+  <si>
+    <t>start,D,J,L,M,P,R,X,b</t>
+  </si>
+  <si>
+    <t>start,B,F,N,S,V,W,X,b</t>
+  </si>
+  <si>
+    <t>start,P,T,V,Z,b,c,f</t>
+  </si>
+  <si>
+    <t>start,K</t>
+  </si>
+  <si>
+    <t>start,F,L,M,Y,f</t>
+  </si>
+  <si>
+    <t>start,M,Y</t>
+  </si>
+  <si>
+    <t>start,A,D,E,G,J,P,X,Y</t>
+  </si>
+  <si>
+    <t>start,A,F,G,H,K,R,S,d</t>
+  </si>
+  <si>
+    <t>start,F,N,U,X,Y</t>
+  </si>
+  <si>
+    <t>start,G,M</t>
+  </si>
+  <si>
+    <t>start,A,H,I,L,V,W,a,c,f</t>
+  </si>
+  <si>
+    <t>start,A,G,S,b</t>
+  </si>
+  <si>
+    <t>start,C,G,N,R,S,V,W,Z,d</t>
+  </si>
+  <si>
+    <t>start,E,I,S,T,W,Z,b,e</t>
+  </si>
+  <si>
+    <t>start,A,B,E,P,R,S,Y,a</t>
+  </si>
+  <si>
+    <t>start,B,Q,f</t>
+  </si>
+  <si>
+    <t>start,Z</t>
+  </si>
+  <si>
+    <t>start,A,H,I,L,M,Q,b,f</t>
+  </si>
+  <si>
+    <t>start,A,G,H,I,O</t>
+  </si>
+  <si>
+    <t>start,M,N,Y</t>
+  </si>
+  <si>
+    <t>start,E,V,X,c,e</t>
+  </si>
+  <si>
+    <t>start,A,F,K,N</t>
+  </si>
+  <si>
+    <t>start,D,E,M,V,Y,d</t>
+  </si>
+  <si>
+    <t>start,D,I,O,X</t>
+  </si>
+  <si>
+    <t>start,C,U</t>
+  </si>
+  <si>
+    <t>start,A</t>
+  </si>
+  <si>
+    <t>start,A,C,F,K,N,W</t>
+  </si>
+  <si>
+    <t>start,A,F,K,N,O,R,W,X,Z</t>
+  </si>
+  <si>
+    <t>start,C,G,H,X,Y,d,f</t>
+  </si>
+  <si>
+    <t>start,Y</t>
+  </si>
+  <si>
+    <t>start,A,B,K,N,b</t>
+  </si>
+  <si>
+    <t>start,D</t>
+  </si>
+  <si>
+    <t>start,H,I,R,V,X,e</t>
+  </si>
+  <si>
+    <t>start,A,C,H,M,T,W,Y,e,f</t>
+  </si>
+  <si>
+    <t>start,B,E,F,H,I,Y,Z,d</t>
+  </si>
+  <si>
+    <t>start,D,F,M,O,Q,U,V,W,Y,e</t>
+  </si>
+  <si>
+    <t>start,I,K,P,V,X,a</t>
+  </si>
+  <si>
+    <t>start,V,W,a,e</t>
+  </si>
+  <si>
+    <t>start,A,B,E,F,N,Q,X</t>
+  </si>
+  <si>
+    <t>start,C,E,G,H,T,U,X</t>
+  </si>
+  <si>
+    <t>start,J,M,P,X,f</t>
+  </si>
+  <si>
+    <t>start,b,d</t>
+  </si>
+  <si>
+    <t>start,D,O,R,V,e</t>
+  </si>
+  <si>
+    <t>start,C,E,J,S,d</t>
   </si>
   <si>
     <t>start,I,P</t>
   </si>
   <si>
-    <t>start,M</t>
-  </si>
-  <si>
-    <t>start,X,f</t>
-  </si>
-  <si>
-    <t>start,G,H,J,O,Z,d</t>
-  </si>
-  <si>
-    <t>start,B,J,K,N,V,c,e</t>
-  </si>
-  <si>
-    <t>start,F,J,L,N,b</t>
-  </si>
-  <si>
-    <t>start,I,R,d</t>
-  </si>
-  <si>
-    <t>start,A,E,Z,a</t>
-  </si>
-  <si>
-    <t>start,F</t>
-  </si>
-  <si>
-    <t>start,E,F,P,d</t>
-  </si>
-  <si>
-    <t>start,A,E,O,P,S,U</t>
-  </si>
-  <si>
-    <t>start,B,G,I,K,N,U,Z,b,d</t>
-  </si>
-  <si>
-    <t>start,B,E,S,U,W,Z,d,e</t>
-  </si>
-  <si>
-    <t>start,C,D,E,M,P,R,W,d,f</t>
-  </si>
-  <si>
-    <t>start,D,Q,a,c</t>
-  </si>
-  <si>
-    <t>start,B,C,N,U,X,c,d</t>
-  </si>
-  <si>
-    <t>start,A,B,H,K,W,Y,b,f</t>
-  </si>
-  <si>
-    <t>start,A,D,G,Z,a</t>
-  </si>
-  <si>
-    <t>start,M,T,b,c</t>
-  </si>
-  <si>
-    <t>start,D,H,L,Q</t>
-  </si>
-  <si>
-    <t>start,D,E,G,I,Q</t>
-  </si>
-  <si>
-    <t>start,D,V</t>
-  </si>
-  <si>
-    <t>start,C,I,R,a,b,d</t>
-  </si>
-  <si>
-    <t>start,A,D,H,e</t>
-  </si>
-  <si>
-    <t>start,C,E,L,M,N,U,W,a</t>
-  </si>
-  <si>
-    <t>start,A,B,C,D,P,W,X,a</t>
-  </si>
-  <si>
-    <t>start,A,K,M,R,d</t>
-  </si>
-  <si>
-    <t>start,f</t>
-  </si>
-  <si>
-    <t>start,F,G,N,Q,a,b,e</t>
-  </si>
-  <si>
-    <t>start,A,M,N,Z,b</t>
-  </si>
-  <si>
-    <t>start,A,F,L,P,Q,b,c,e</t>
-  </si>
-  <si>
-    <t>start,C,L,Q,Y,e</t>
-  </si>
-  <si>
-    <t>start,H,N,P,R,X,a,c</t>
-  </si>
-  <si>
-    <t>start,I,L,N,R,Y,Z,c,f</t>
-  </si>
-  <si>
-    <t>start,G,H,J,K,N,S,Z,f</t>
-  </si>
-  <si>
-    <t>start,D,F,H,S,T,U,W,X,e</t>
-  </si>
-  <si>
-    <t>start,B,J,S,V,X,Y</t>
-  </si>
-  <si>
-    <t>start,M,X,c,f</t>
-  </si>
-  <si>
-    <t>start,B,D,E,G,P,U,V,Y</t>
-  </si>
-  <si>
-    <t>start,H,M,O,P,S,U,X,a</t>
-  </si>
-  <si>
-    <t>start,B,J,a</t>
-  </si>
-  <si>
-    <t>start,E,F,H,K,N,W,X,Z,d,e</t>
-  </si>
-  <si>
-    <t>start,K,S,W,Y,Z,c,e</t>
-  </si>
-  <si>
-    <t>start,C,G,I,R,U,Z,d</t>
-  </si>
-  <si>
-    <t>start,B,M,P,Z,a,b,d,e</t>
-  </si>
-  <si>
-    <t>start,J,b,c</t>
-  </si>
-  <si>
-    <t>start,E,L,R,Y,a</t>
-  </si>
-  <si>
-    <t>start,X</t>
-  </si>
-  <si>
-    <t>start,H,T,U,b,c,f</t>
-  </si>
-  <si>
-    <t>start,M,c</t>
-  </si>
-  <si>
-    <t>start,I,J,N,S,W,Z</t>
-  </si>
-  <si>
-    <t>start,E,J,M,N,T,a</t>
-  </si>
-  <si>
-    <t>start,D,G,H,P,T,V,X,a</t>
-  </si>
-  <si>
-    <t>start,E,K,N,O,P,d</t>
-  </si>
-  <si>
-    <t>start,K,Q,R,V,Z,e</t>
-  </si>
-  <si>
-    <t>start,A,D,I,U,Y,Z,d</t>
-  </si>
-  <si>
-    <t>start,E,G,K,N,S,V,Y,b,d</t>
-  </si>
-  <si>
-    <t>start,d</t>
-  </si>
-  <si>
-    <t>start,A,F,J,P</t>
-  </si>
-  <si>
-    <t>start,C,I,L,M,S,W,Z,e</t>
-  </si>
-  <si>
-    <t>start,D,G,O,Q,R,Y,Z</t>
-  </si>
-  <si>
-    <t>start,A,B,I,J,N,d,f</t>
-  </si>
-  <si>
-    <t>start,A,B,C,F,M,V,d</t>
-  </si>
-  <si>
-    <t>start,J,L</t>
-  </si>
-  <si>
-    <t>start,C,G,H,I,J,c</t>
-  </si>
-  <si>
-    <t>start,H,I,K,M,S</t>
-  </si>
-  <si>
-    <t>start,A,I,O,Y,d</t>
-  </si>
-  <si>
-    <t>start,A,C,M</t>
-  </si>
-  <si>
-    <t>start,A,B,C,F,G,Z</t>
-  </si>
-  <si>
-    <t>start,E,F,G,P,U,a,d</t>
-  </si>
-  <si>
-    <t>start,F,M,O,W,c,e</t>
-  </si>
-  <si>
-    <t>start,M,V,W,c,f</t>
-  </si>
-  <si>
-    <t>start,A,B,L,M</t>
-  </si>
-  <si>
-    <t>start,G,P</t>
-  </si>
-  <si>
-    <t>start,D,E,J,N,V,f</t>
-  </si>
-  <si>
-    <t>start,I,K,O,Y,Z,a</t>
-  </si>
-  <si>
-    <t>start,B,C,D,M,S,Y,Z</t>
-  </si>
-  <si>
-    <t>start,I,L,M,O,Z,a</t>
-  </si>
-  <si>
-    <t>start,C,H,I,Q,R,U,X,d,f</t>
-  </si>
-  <si>
-    <t>start,A,H,I,K,O,Y,a</t>
-  </si>
-  <si>
-    <t>start,P,b,d</t>
-  </si>
-  <si>
-    <t>start,B,X</t>
-  </si>
-  <si>
-    <t>start,D,b,f</t>
-  </si>
-  <si>
-    <t>start,I,J,L,M,U,V,a,b</t>
-  </si>
-  <si>
-    <t>start,C,G,O</t>
-  </si>
-  <si>
-    <t>start,S,T,U,W,b</t>
-  </si>
-  <si>
-    <t>start,B,O,X,Y</t>
-  </si>
-  <si>
-    <t>start,A,D,H,R,S</t>
-  </si>
-  <si>
-    <t>start,E,F,K,L,M,N,T,W,e</t>
-  </si>
-  <si>
-    <t>start,H,I,K,N,U,X,Z</t>
-  </si>
-  <si>
-    <t>start,J</t>
-  </si>
-  <si>
-    <t>start,C,I,M,P,Q</t>
-  </si>
-  <si>
-    <t>start,A,O,T,V</t>
-  </si>
-  <si>
-    <t>start,F,I,L,O,R,U,V,Y,c</t>
-  </si>
-  <si>
-    <t>start,F,J,Q,X,a,c</t>
-  </si>
-  <si>
-    <t>start,F,G,H,V,W,Y,Z,d</t>
-  </si>
-  <si>
-    <t>start,G,O,U,Y</t>
+    <t>start,C,J,M,S,Y,b,c</t>
+  </si>
+  <si>
+    <t>start,B,L,O,W</t>
+  </si>
+  <si>
+    <t>start,G,M,V,W,X,f</t>
+  </si>
+  <si>
+    <t>start,N,P,V</t>
+  </si>
+  <si>
+    <t>start,A,B,G,J,K,S</t>
+  </si>
+  <si>
+    <t>start,B,G,H,R,S,f</t>
+  </si>
+  <si>
+    <t>start,C,E,F,Q,U,W,X,b</t>
   </si>
 </sst>
 </file>
@@ -958,197 +952,197 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/query.xlsx
+++ b/query.xlsx
@@ -14,300 +14,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
-  <si>
-    <t>start,C,I,L,O,S,X,Z,c,f</t>
-  </si>
-  <si>
-    <t>start,C,W</t>
-  </si>
-  <si>
-    <t>start,C,G,J,N,Y,b</t>
-  </si>
-  <si>
-    <t>start,D,F,I,P,Q,X,Z,c</t>
-  </si>
-  <si>
-    <t>start,B,E,J,N,V,Y,f</t>
-  </si>
-  <si>
-    <t>start,O,Y,c,f</t>
-  </si>
-  <si>
-    <t>start,W</t>
-  </si>
-  <si>
-    <t>start,A,D,E,H,S,W,X,Y,b</t>
-  </si>
-  <si>
-    <t>start,T,c</t>
-  </si>
-  <si>
-    <t>start,L,X,b</t>
-  </si>
-  <si>
-    <t>start,G,K,T</t>
-  </si>
-  <si>
-    <t>start,G,L,R,W,X,a,b,f</t>
-  </si>
-  <si>
-    <t>start,D,F,J,N,T,Z,b,f</t>
-  </si>
-  <si>
-    <t>start,D,I,L,N,Q,U,Z,e</t>
-  </si>
-  <si>
-    <t>start,C,M,N,P,Y,d,e</t>
-  </si>
-  <si>
-    <t>start,F,K,W,f</t>
-  </si>
-  <si>
-    <t>start,O</t>
-  </si>
-  <si>
-    <t>start,D,K</t>
-  </si>
-  <si>
-    <t>start,A,D,E,F,J,V,e</t>
-  </si>
-  <si>
-    <t>start,B,K,M,P,V,Y,Z,e</t>
-  </si>
-  <si>
-    <t>start,D,Z</t>
-  </si>
-  <si>
-    <t>start,C,G,H,K,X</t>
-  </si>
-  <si>
-    <t>start,C,O,V,c</t>
-  </si>
-  <si>
-    <t>start,B,C,N,R,V,b</t>
-  </si>
-  <si>
-    <t>start,A,E,H,L,Q,U,Z,c,e</t>
-  </si>
-  <si>
-    <t>start,Q,R,V</t>
-  </si>
-  <si>
-    <t>start,E,J,Q,a,b,c</t>
-  </si>
-  <si>
-    <t>start,I,L,M,N,P,Q,V,X,e</t>
-  </si>
-  <si>
-    <t>start,D,X,d,e</t>
-  </si>
-  <si>
-    <t>start,B,J</t>
-  </si>
-  <si>
-    <t>start,A,I,J,L,W,Y,a,b</t>
-  </si>
-  <si>
-    <t>start,B,C,E,K,T,Z,b,f</t>
-  </si>
-  <si>
-    <t>start,C,H,M,N,O,S,U,W,Y</t>
-  </si>
-  <si>
-    <t>start,A,H,M,O,Z</t>
-  </si>
-  <si>
-    <t>start,G,I,P,Q,b</t>
-  </si>
-  <si>
-    <t>start,L,M</t>
-  </si>
-  <si>
-    <t>start,D,G,P,b</t>
-  </si>
-  <si>
-    <t>start,C,G,J,P,U,a,b,d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+  <si>
+    <t>start,D,F,G,Q,Z</t>
+  </si>
+  <si>
+    <t>start,A,B,F,N,O,R,X,b,c</t>
+  </si>
+  <si>
+    <t>start,I</t>
+  </si>
+  <si>
+    <t>start,G,I,W</t>
+  </si>
+  <si>
+    <t>start,P,U,W,X,Z,c</t>
+  </si>
+  <si>
+    <t>start,B,D,F,H,R,W,f</t>
+  </si>
+  <si>
+    <t>start,B,K,N,O,U,V,Y,Z</t>
+  </si>
+  <si>
+    <t>start,A,E,H,J,N,c,d,f</t>
+  </si>
+  <si>
+    <t>start,J,U,f</t>
+  </si>
+  <si>
+    <t>start,D,E,b,c,d,e</t>
+  </si>
+  <si>
+    <t>start,X</t>
+  </si>
+  <si>
+    <t>start,K,O,Q,R,S,W,X,b,d</t>
+  </si>
+  <si>
+    <t>start,E,F,K,O,Q,R</t>
+  </si>
+  <si>
+    <t>start,B,G,I,P,S,a,f</t>
+  </si>
+  <si>
+    <t>start,P,W,X,c,d,f</t>
+  </si>
+  <si>
+    <t>start,B,E,F,G,N,Q,d</t>
+  </si>
+  <si>
+    <t>start,G,M,N,V,Y,a,b</t>
+  </si>
+  <si>
+    <t>start,U,d,e</t>
+  </si>
+  <si>
+    <t>start,B,K,L,M,O,S,a,e,f</t>
+  </si>
+  <si>
+    <t>start,G,R</t>
+  </si>
+  <si>
+    <t>start,B,D,I,L,M,Q,b,d</t>
+  </si>
+  <si>
+    <t>start,E,H,J,d</t>
+  </si>
+  <si>
+    <t>start,B,D,F,S,X</t>
+  </si>
+  <si>
+    <t>start,D,J,O,c</t>
+  </si>
+  <si>
+    <t>start,B,C,F,O,P,T,c,f</t>
+  </si>
+  <si>
+    <t>start,A,U</t>
+  </si>
+  <si>
+    <t>start,E,K,M,O,P,Q,R,S,c,d</t>
+  </si>
+  <si>
+    <t>start,R,b,d</t>
+  </si>
+  <si>
+    <t>start,C,E,J,L,N,T,Y,b,e,f</t>
+  </si>
+  <si>
+    <t>start,A,D,M,V,Y,Z,b,e</t>
+  </si>
+  <si>
+    <t>start,J</t>
+  </si>
+  <si>
+    <t>start,S,b,e</t>
+  </si>
+  <si>
+    <t>start,A,C,I,N,Q,S,X,a,f</t>
+  </si>
+  <si>
+    <t>start,A,F,L,N,R,U,Z,a,c</t>
+  </si>
+  <si>
+    <t>start,G,I,K,N,S,T,c</t>
+  </si>
+  <si>
+    <t>start,J,Q,T,U,a,b</t>
+  </si>
+  <si>
+    <t>start,E,a</t>
+  </si>
+  <si>
+    <t>start,C,N,S,d</t>
+  </si>
+  <si>
+    <t>start,H,d</t>
+  </si>
+  <si>
+    <t>start,D,H,K,V,Z</t>
+  </si>
+  <si>
+    <t>start,C,G,H,T,d,e,f</t>
+  </si>
+  <si>
+    <t>start,O,W</t>
+  </si>
+  <si>
+    <t>start,J,K,T,U,Y,b,c</t>
+  </si>
+  <si>
+    <t>start,c</t>
+  </si>
+  <si>
+    <t>start,C,I,O,Q,V</t>
+  </si>
+  <si>
+    <t>start,A,C,I,J,P,R,T,U</t>
+  </si>
+  <si>
+    <t>start,H,K,P,f</t>
+  </si>
+  <si>
+    <t>start,A,D,J,Q,a,d</t>
+  </si>
+  <si>
+    <t>start,B,J,a</t>
+  </si>
+  <si>
+    <t>start,F,Z,b,d</t>
+  </si>
+  <si>
+    <t>start,F,G,H,I,W</t>
   </si>
   <si>
     <t>start,C</t>
   </si>
   <si>
-    <t>start,C,L,M,P,X,a,c,d</t>
-  </si>
-  <si>
-    <t>start,I,M,T,V,X,Z,e</t>
-  </si>
-  <si>
-    <t>start,F,K,L,Q,T,e</t>
-  </si>
-  <si>
-    <t>start,B,D,F,T,Y,f</t>
-  </si>
-  <si>
-    <t>start,N,d</t>
-  </si>
-  <si>
-    <t>start,C,I,J,O,T</t>
-  </si>
-  <si>
-    <t>start,C,F,I,f</t>
-  </si>
-  <si>
-    <t>start,D,J,L,M,P,R,X,b</t>
-  </si>
-  <si>
-    <t>start,B,F,N,S,V,W,X,b</t>
-  </si>
-  <si>
-    <t>start,P,T,V,Z,b,c,f</t>
-  </si>
-  <si>
-    <t>start,K</t>
-  </si>
-  <si>
-    <t>start,F,L,M,Y,f</t>
-  </si>
-  <si>
-    <t>start,M,Y</t>
-  </si>
-  <si>
-    <t>start,A,D,E,G,J,P,X,Y</t>
-  </si>
-  <si>
-    <t>start,A,F,G,H,K,R,S,d</t>
-  </si>
-  <si>
-    <t>start,F,N,U,X,Y</t>
-  </si>
-  <si>
-    <t>start,G,M</t>
-  </si>
-  <si>
-    <t>start,A,H,I,L,V,W,a,c,f</t>
-  </si>
-  <si>
-    <t>start,A,G,S,b</t>
-  </si>
-  <si>
-    <t>start,C,G,N,R,S,V,W,Z,d</t>
-  </si>
-  <si>
-    <t>start,E,I,S,T,W,Z,b,e</t>
-  </si>
-  <si>
-    <t>start,A,B,E,P,R,S,Y,a</t>
-  </si>
-  <si>
-    <t>start,B,Q,f</t>
-  </si>
-  <si>
-    <t>start,Z</t>
-  </si>
-  <si>
-    <t>start,A,H,I,L,M,Q,b,f</t>
-  </si>
-  <si>
-    <t>start,A,G,H,I,O</t>
-  </si>
-  <si>
-    <t>start,M,N,Y</t>
-  </si>
-  <si>
-    <t>start,E,V,X,c,e</t>
-  </si>
-  <si>
-    <t>start,A,F,K,N</t>
-  </si>
-  <si>
-    <t>start,D,E,M,V,Y,d</t>
-  </si>
-  <si>
-    <t>start,D,I,O,X</t>
-  </si>
-  <si>
-    <t>start,C,U</t>
-  </si>
-  <si>
-    <t>start,A</t>
-  </si>
-  <si>
-    <t>start,A,C,F,K,N,W</t>
-  </si>
-  <si>
-    <t>start,A,F,K,N,O,R,W,X,Z</t>
-  </si>
-  <si>
-    <t>start,C,G,H,X,Y,d,f</t>
-  </si>
-  <si>
-    <t>start,Y</t>
-  </si>
-  <si>
-    <t>start,A,B,K,N,b</t>
-  </si>
-  <si>
-    <t>start,D</t>
-  </si>
-  <si>
-    <t>start,H,I,R,V,X,e</t>
-  </si>
-  <si>
-    <t>start,A,C,H,M,T,W,Y,e,f</t>
-  </si>
-  <si>
-    <t>start,B,E,F,H,I,Y,Z,d</t>
-  </si>
-  <si>
-    <t>start,D,F,M,O,Q,U,V,W,Y,e</t>
-  </si>
-  <si>
-    <t>start,I,K,P,V,X,a</t>
-  </si>
-  <si>
-    <t>start,V,W,a,e</t>
-  </si>
-  <si>
-    <t>start,A,B,E,F,N,Q,X</t>
-  </si>
-  <si>
-    <t>start,C,E,G,H,T,U,X</t>
-  </si>
-  <si>
-    <t>start,J,M,P,X,f</t>
-  </si>
-  <si>
-    <t>start,b,d</t>
-  </si>
-  <si>
-    <t>start,D,O,R,V,e</t>
-  </si>
-  <si>
-    <t>start,C,E,J,S,d</t>
-  </si>
-  <si>
-    <t>start,I,P</t>
-  </si>
-  <si>
-    <t>start,C,J,M,S,Y,b,c</t>
-  </si>
-  <si>
-    <t>start,B,L,O,W</t>
-  </si>
-  <si>
-    <t>start,G,M,V,W,X,f</t>
-  </si>
-  <si>
-    <t>start,N,P,V</t>
-  </si>
-  <si>
-    <t>start,A,B,G,J,K,S</t>
-  </si>
-  <si>
-    <t>start,B,G,H,R,S,f</t>
-  </si>
-  <si>
-    <t>start,C,E,F,Q,U,W,X,b</t>
+    <t>start,H,J,N,O,Q,S,a</t>
+  </si>
+  <si>
+    <t>start,I,Q,T,V,d</t>
+  </si>
+  <si>
+    <t>start,H,I,L,U,V,W,d</t>
+  </si>
+  <si>
+    <t>start,B,D,G,P,S,c</t>
+  </si>
+  <si>
+    <t>start,H,J,N,U,e</t>
+  </si>
+  <si>
+    <t>start,A,H,P,Q,S</t>
+  </si>
+  <si>
+    <t>start,I,K,Q,R,U,b</t>
+  </si>
+  <si>
+    <t>start,G,I,M,P,R,U,X</t>
+  </si>
+  <si>
+    <t>start,D,H,J,L,R,T,U,a</t>
+  </si>
+  <si>
+    <t>start,E,G,H,N,R,V,Z</t>
+  </si>
+  <si>
+    <t>start,A,D,K,N,W,Y</t>
+  </si>
+  <si>
+    <t>start,E</t>
+  </si>
+  <si>
+    <t>start,A,C,I,J,M,N,U</t>
+  </si>
+  <si>
+    <t>start,B,H,T,Z,c,e</t>
+  </si>
+  <si>
+    <t>start,A,D,K,S,U,e</t>
+  </si>
+  <si>
+    <t>start,D,P,T,Y,b</t>
+  </si>
+  <si>
+    <t>start,H,K,P</t>
+  </si>
+  <si>
+    <t>start,R,Z</t>
+  </si>
+  <si>
+    <t>start,G,J,M,X</t>
+  </si>
+  <si>
+    <t>start,M,N,U,Y,d,e</t>
+  </si>
+  <si>
+    <t>start,D,E,K,R,W,d</t>
+  </si>
+  <si>
+    <t>start,F,K,N,U</t>
+  </si>
+  <si>
+    <t>start,A,D,J,N,O,T,Z,a</t>
+  </si>
+  <si>
+    <t>start,I,K,Q,S</t>
+  </si>
+  <si>
+    <t>start,A,H,O,S,W,a,f</t>
+  </si>
+  <si>
+    <t>start,N</t>
+  </si>
+  <si>
+    <t>start,G,L,N</t>
+  </si>
+  <si>
+    <t>start,E,I</t>
+  </si>
+  <si>
+    <t>start,U,a</t>
+  </si>
+  <si>
+    <t>start,A,D,Z</t>
+  </si>
+  <si>
+    <t>start,E,K</t>
+  </si>
+  <si>
+    <t>start,A,K,O,T,U,V,Y,d</t>
+  </si>
+  <si>
+    <t>start,D,M,P,S,V,a,f</t>
+  </si>
+  <si>
+    <t>start,d,f</t>
+  </si>
+  <si>
+    <t>start,V,a,c</t>
+  </si>
+  <si>
+    <t>start,C,M,N,V,b,f</t>
+  </si>
+  <si>
+    <t>start,H,M,e</t>
+  </si>
+  <si>
+    <t>start,H,I,L,P,b,e</t>
+  </si>
+  <si>
+    <t>start,B,E,M,V,X,Y,c,d</t>
+  </si>
+  <si>
+    <t>start,B,J,N,O,R,U,W,X,c</t>
+  </si>
+  <si>
+    <t>start,W,d,e</t>
+  </si>
+  <si>
+    <t>start,E,L,R</t>
+  </si>
+  <si>
+    <t>start,B,D,F,H,P,c</t>
+  </si>
+  <si>
+    <t>start,F,I,J,S,a,f</t>
+  </si>
+  <si>
+    <t>start,G,N,R,U,f</t>
+  </si>
+  <si>
+    <t>start,b</t>
+  </si>
+  <si>
+    <t>start,Q,W,a</t>
   </si>
 </sst>
 </file>
@@ -702,257 +705,257 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -1062,87 +1065,87 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/query.xlsx
+++ b/query.xlsx
@@ -14,303 +14,291 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
-  <si>
-    <t>start,D,F,G,Q,Z</t>
-  </si>
-  <si>
-    <t>start,A,B,F,N,O,R,X,b,c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+  <si>
+    <t>start,C,P,R,U</t>
+  </si>
+  <si>
+    <t>start,A,C,G,J,S,W,Z,d</t>
+  </si>
+  <si>
+    <t>start,I,J,e</t>
+  </si>
+  <si>
+    <t>start,E,L,N,Q,T,Y,a</t>
+  </si>
+  <si>
+    <t>start,B,F,J,K,d</t>
+  </si>
+  <si>
+    <t>start,A,Q,T,X,Y</t>
+  </si>
+  <si>
+    <t>start,F,G,Q,S,V,W,b</t>
+  </si>
+  <si>
+    <t>start,J,K,P,a,f</t>
+  </si>
+  <si>
+    <t>start,A,E,L,d</t>
+  </si>
+  <si>
+    <t>start,E</t>
+  </si>
+  <si>
+    <t>start,D,O,e</t>
+  </si>
+  <si>
+    <t>start,Q</t>
+  </si>
+  <si>
+    <t>start,G</t>
+  </si>
+  <si>
+    <t>start,I,O</t>
+  </si>
+  <si>
+    <t>start,J,X</t>
+  </si>
+  <si>
+    <t>start,C,D,I,W,Z,e</t>
+  </si>
+  <si>
+    <t>start,F,J,S,Y,Z,d</t>
+  </si>
+  <si>
+    <t>start,E,H,K,Q,W,X,e</t>
+  </si>
+  <si>
+    <t>start,A,G,V,W,Y,Z,b</t>
+  </si>
+  <si>
+    <t>start,A,B,F,G,N,S,a,f</t>
+  </si>
+  <si>
+    <t>start,E,I,S,a</t>
+  </si>
+  <si>
+    <t>start,J,M</t>
+  </si>
+  <si>
+    <t>start,Z,c</t>
+  </si>
+  <si>
+    <t>start,S,V,Y</t>
+  </si>
+  <si>
+    <t>start,H,J,K,M,P,T,Y,e</t>
+  </si>
+  <si>
+    <t>start,A,I,P,X</t>
+  </si>
+  <si>
+    <t>start,G,I,P,T,Y,e</t>
+  </si>
+  <si>
+    <t>start,L,R,U,X,Y</t>
+  </si>
+  <si>
+    <t>start,C,D,O,P,X,Y,a,e</t>
+  </si>
+  <si>
+    <t>start,A</t>
+  </si>
+  <si>
+    <t>start,M,U,Z,c,e,f</t>
+  </si>
+  <si>
+    <t>start,A,E</t>
+  </si>
+  <si>
+    <t>start,H,M,X,c,f</t>
+  </si>
+  <si>
+    <t>start,F,J,Q</t>
+  </si>
+  <si>
+    <t>start,A,M</t>
+  </si>
+  <si>
+    <t>start,B,F,J,M,P,V,b</t>
+  </si>
+  <si>
+    <t>start,E,N,R,V,X,Z,c,f</t>
+  </si>
+  <si>
+    <t>start,J</t>
+  </si>
+  <si>
+    <t>start,D,M,R,T,U,b</t>
+  </si>
+  <si>
+    <t>start,C,E,H,L,Y</t>
+  </si>
+  <si>
+    <t>start,B,C,G,N</t>
+  </si>
+  <si>
+    <t>start,H,U</t>
+  </si>
+  <si>
+    <t>start,T</t>
+  </si>
+  <si>
+    <t>start,B,D,X,Z</t>
+  </si>
+  <si>
+    <t>start,D,H,K,M,O,Q,R,c,f</t>
+  </si>
+  <si>
+    <t>start,B,D,G,I,L,O,Q,Z,d,f</t>
+  </si>
+  <si>
+    <t>start,C,P,e</t>
+  </si>
+  <si>
+    <t>start,F,G,U</t>
+  </si>
+  <si>
+    <t>start,D,R</t>
+  </si>
+  <si>
+    <t>start,U</t>
+  </si>
+  <si>
+    <t>start,E,K,T,W</t>
+  </si>
+  <si>
+    <t>start,N,O,S,V,Y</t>
+  </si>
+  <si>
+    <t>start,M,O,R,U,d</t>
   </si>
   <si>
     <t>start,I</t>
   </si>
   <si>
-    <t>start,G,I,W</t>
-  </si>
-  <si>
-    <t>start,P,U,W,X,Z,c</t>
-  </si>
-  <si>
-    <t>start,B,D,F,H,R,W,f</t>
-  </si>
-  <si>
-    <t>start,B,K,N,O,U,V,Y,Z</t>
-  </si>
-  <si>
-    <t>start,A,E,H,J,N,c,d,f</t>
-  </si>
-  <si>
-    <t>start,J,U,f</t>
-  </si>
-  <si>
-    <t>start,D,E,b,c,d,e</t>
+    <t>start,A,O,P,W,X</t>
+  </si>
+  <si>
+    <t>start,F,L,Q,e</t>
+  </si>
+  <si>
+    <t>start,D,H,R,e</t>
+  </si>
+  <si>
+    <t>start,I,N,R,V,X,Z,d</t>
+  </si>
+  <si>
+    <t>start,B,C,J,K,c,d</t>
   </si>
   <si>
     <t>start,X</t>
   </si>
   <si>
-    <t>start,K,O,Q,R,S,W,X,b,d</t>
-  </si>
-  <si>
-    <t>start,E,F,K,O,Q,R</t>
-  </si>
-  <si>
-    <t>start,B,G,I,P,S,a,f</t>
-  </si>
-  <si>
-    <t>start,P,W,X,c,d,f</t>
-  </si>
-  <si>
-    <t>start,B,E,F,G,N,Q,d</t>
-  </si>
-  <si>
-    <t>start,G,M,N,V,Y,a,b</t>
-  </si>
-  <si>
-    <t>start,U,d,e</t>
-  </si>
-  <si>
-    <t>start,B,K,L,M,O,S,a,e,f</t>
-  </si>
-  <si>
-    <t>start,G,R</t>
-  </si>
-  <si>
-    <t>start,B,D,I,L,M,Q,b,d</t>
-  </si>
-  <si>
-    <t>start,E,H,J,d</t>
-  </si>
-  <si>
-    <t>start,B,D,F,S,X</t>
-  </si>
-  <si>
-    <t>start,D,J,O,c</t>
-  </si>
-  <si>
-    <t>start,B,C,F,O,P,T,c,f</t>
-  </si>
-  <si>
-    <t>start,A,U</t>
-  </si>
-  <si>
-    <t>start,E,K,M,O,P,Q,R,S,c,d</t>
-  </si>
-  <si>
-    <t>start,R,b,d</t>
-  </si>
-  <si>
-    <t>start,C,E,J,L,N,T,Y,b,e,f</t>
-  </si>
-  <si>
-    <t>start,A,D,M,V,Y,Z,b,e</t>
-  </si>
-  <si>
-    <t>start,J</t>
-  </si>
-  <si>
-    <t>start,S,b,e</t>
-  </si>
-  <si>
-    <t>start,A,C,I,N,Q,S,X,a,f</t>
-  </si>
-  <si>
-    <t>start,A,F,L,N,R,U,Z,a,c</t>
-  </si>
-  <si>
-    <t>start,G,I,K,N,S,T,c</t>
-  </si>
-  <si>
-    <t>start,J,Q,T,U,a,b</t>
-  </si>
-  <si>
-    <t>start,E,a</t>
-  </si>
-  <si>
-    <t>start,C,N,S,d</t>
-  </si>
-  <si>
-    <t>start,H,d</t>
-  </si>
-  <si>
-    <t>start,D,H,K,V,Z</t>
-  </si>
-  <si>
-    <t>start,C,G,H,T,d,e,f</t>
-  </si>
-  <si>
-    <t>start,O,W</t>
-  </si>
-  <si>
-    <t>start,J,K,T,U,Y,b,c</t>
-  </si>
-  <si>
-    <t>start,c</t>
-  </si>
-  <si>
-    <t>start,C,I,O,Q,V</t>
-  </si>
-  <si>
-    <t>start,A,C,I,J,P,R,T,U</t>
-  </si>
-  <si>
-    <t>start,H,K,P,f</t>
-  </si>
-  <si>
-    <t>start,A,D,J,Q,a,d</t>
-  </si>
-  <si>
-    <t>start,B,J,a</t>
-  </si>
-  <si>
-    <t>start,F,Z,b,d</t>
-  </si>
-  <si>
-    <t>start,F,G,H,I,W</t>
-  </si>
-  <si>
-    <t>start,C</t>
-  </si>
-  <si>
-    <t>start,H,J,N,O,Q,S,a</t>
-  </si>
-  <si>
-    <t>start,I,Q,T,V,d</t>
-  </si>
-  <si>
-    <t>start,H,I,L,U,V,W,d</t>
-  </si>
-  <si>
-    <t>start,B,D,G,P,S,c</t>
-  </si>
-  <si>
-    <t>start,H,J,N,U,e</t>
-  </si>
-  <si>
-    <t>start,A,H,P,Q,S</t>
-  </si>
-  <si>
-    <t>start,I,K,Q,R,U,b</t>
-  </si>
-  <si>
-    <t>start,G,I,M,P,R,U,X</t>
-  </si>
-  <si>
-    <t>start,D,H,J,L,R,T,U,a</t>
-  </si>
-  <si>
-    <t>start,E,G,H,N,R,V,Z</t>
-  </si>
-  <si>
-    <t>start,A,D,K,N,W,Y</t>
-  </si>
-  <si>
-    <t>start,E</t>
-  </si>
-  <si>
-    <t>start,A,C,I,J,M,N,U</t>
-  </si>
-  <si>
-    <t>start,B,H,T,Z,c,e</t>
-  </si>
-  <si>
-    <t>start,A,D,K,S,U,e</t>
-  </si>
-  <si>
-    <t>start,D,P,T,Y,b</t>
-  </si>
-  <si>
-    <t>start,H,K,P</t>
-  </si>
-  <si>
-    <t>start,R,Z</t>
-  </si>
-  <si>
-    <t>start,G,J,M,X</t>
-  </si>
-  <si>
-    <t>start,M,N,U,Y,d,e</t>
-  </si>
-  <si>
-    <t>start,D,E,K,R,W,d</t>
-  </si>
-  <si>
-    <t>start,F,K,N,U</t>
-  </si>
-  <si>
-    <t>start,A,D,J,N,O,T,Z,a</t>
-  </si>
-  <si>
-    <t>start,I,K,Q,S</t>
-  </si>
-  <si>
-    <t>start,A,H,O,S,W,a,f</t>
-  </si>
-  <si>
-    <t>start,N</t>
-  </si>
-  <si>
-    <t>start,G,L,N</t>
-  </si>
-  <si>
-    <t>start,E,I</t>
-  </si>
-  <si>
-    <t>start,U,a</t>
-  </si>
-  <si>
-    <t>start,A,D,Z</t>
-  </si>
-  <si>
-    <t>start,E,K</t>
-  </si>
-  <si>
-    <t>start,A,K,O,T,U,V,Y,d</t>
-  </si>
-  <si>
-    <t>start,D,M,P,S,V,a,f</t>
-  </si>
-  <si>
-    <t>start,d,f</t>
-  </si>
-  <si>
-    <t>start,V,a,c</t>
-  </si>
-  <si>
-    <t>start,C,M,N,V,b,f</t>
-  </si>
-  <si>
-    <t>start,H,M,e</t>
-  </si>
-  <si>
-    <t>start,H,I,L,P,b,e</t>
-  </si>
-  <si>
-    <t>start,B,E,M,V,X,Y,c,d</t>
-  </si>
-  <si>
-    <t>start,B,J,N,O,R,U,W,X,c</t>
-  </si>
-  <si>
-    <t>start,W,d,e</t>
-  </si>
-  <si>
-    <t>start,E,L,R</t>
-  </si>
-  <si>
-    <t>start,B,D,F,H,P,c</t>
-  </si>
-  <si>
-    <t>start,F,I,J,S,a,f</t>
-  </si>
-  <si>
-    <t>start,G,N,R,U,f</t>
-  </si>
-  <si>
-    <t>start,b</t>
-  </si>
-  <si>
-    <t>start,Q,W,a</t>
+    <t>start,A,G,J,O,T,U,X,e,f</t>
+  </si>
+  <si>
+    <t>start,A,C,O,R,T,U,Z,f</t>
+  </si>
+  <si>
+    <t>start,C,D,S,V,W,Z,d,e</t>
+  </si>
+  <si>
+    <t>start,A,P,Q,U</t>
+  </si>
+  <si>
+    <t>start,A,C,G,L,M,Q,Z,f</t>
+  </si>
+  <si>
+    <t>start,F,K,S,Z,a,c</t>
+  </si>
+  <si>
+    <t>start,Z,f</t>
+  </si>
+  <si>
+    <t>start,Z</t>
+  </si>
+  <si>
+    <t>start,S,T,a,e</t>
+  </si>
+  <si>
+    <t>start,f</t>
+  </si>
+  <si>
+    <t>start,G,L,S</t>
+  </si>
+  <si>
+    <t>start,C,R,U,V,b,c,d</t>
+  </si>
+  <si>
+    <t>start,D,E,H,M,N,O,U,V,Y</t>
+  </si>
+  <si>
+    <t>start,I,Y,Z</t>
+  </si>
+  <si>
+    <t>start,C,H,L,N,a,b,d,e,f</t>
+  </si>
+  <si>
+    <t>start,B,H,Q,U,c</t>
+  </si>
+  <si>
+    <t>start,F,G,J,O,V,W,Y,e</t>
+  </si>
+  <si>
+    <t>start,C,J,L,e</t>
+  </si>
+  <si>
+    <t>start,P,a,c</t>
+  </si>
+  <si>
+    <t>start,E,R,V,a</t>
+  </si>
+  <si>
+    <t>start,H,L,M,O,b</t>
+  </si>
+  <si>
+    <t>start,A,J,L,V,e</t>
+  </si>
+  <si>
+    <t>start,D,M,N,R,S,a,c</t>
+  </si>
+  <si>
+    <t>start,A,N,O,d</t>
+  </si>
+  <si>
+    <t>start,G,W</t>
+  </si>
+  <si>
+    <t>start,C,N,R,T,f</t>
+  </si>
+  <si>
+    <t>start,B,E,I,Q,T,Y,a,e</t>
+  </si>
+  <si>
+    <t>start,J,L,M,O,R,U,X,d</t>
+  </si>
+  <si>
+    <t>start,B,D,G,I,S,f</t>
+  </si>
+  <si>
+    <t>start,L,U,d,e</t>
+  </si>
+  <si>
+    <t>start,U,X</t>
+  </si>
+  <si>
+    <t>start,G,H,W,e</t>
+  </si>
+  <si>
+    <t>start,G,O,Q,R,U,Z,d</t>
+  </si>
+  <si>
+    <t>start,H,O,b,e,f</t>
+  </si>
+  <si>
+    <t>start,K,L,O,Q,R,S,X,e</t>
   </si>
 </sst>
 </file>
@@ -705,167 +693,167 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -1020,132 +1008,132 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
